--- a/for_report/my_result.xlsx
+++ b/for_report/my_result.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nachi\Desktop\my_project\dl_assignment_02\For report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nachi\Desktop\my_project\dl_assignment_02\for_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA724205-D75A-489D-B80C-FAE1BDF77391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3795C98E-7A29-4C99-B821-EF309389FF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77C397CF-BE09-41A4-9166-4FB27DCD16D9}"/>
+    <workbookView xWindow="7200" yWindow="2775" windowWidth="21600" windowHeight="11385" xr2:uid="{77C397CF-BE09-41A4-9166-4FB27DCD16D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Plot" sheetId="2" r:id="rId2"/>
-    <sheet name="Report" sheetId="3" r:id="rId3"/>
+    <sheet name="Table" sheetId="4" r:id="rId1"/>
+    <sheet name="Table(failed)" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="68">
   <si>
     <t>MNIST Evaluation Report: 2015410115 SongJaemin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,8 +362,19 @@
       <color rgb="FF00B0F0"/>
       <name val="courier"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="courier"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +405,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -447,13 +463,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,11 +608,109 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -878,12 +1025,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114A5A9F-0127-4101-A489-943A2712BE6C}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0105F7-3388-44FD-95B0-1F9206585646}">
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K30" sqref="K30:N33"/>
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -903,24 +1049,23 @@
     <col min="14" max="14" width="21.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="E1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="3"/>
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="34"/>
       <c r="L1" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -971,7 +1116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,13 +1129,13 @@
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="47">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="47">
         <v>30</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1009,22 +1154,23 @@
         <v>0</v>
       </c>
       <c r="M3" s="14">
-        <v>0.75236353079477902</v>
+        <v>0.77528378566106104</v>
       </c>
       <c r="N3" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="14">
-        <v>0.98580002784729004</v>
+        <v>0.98559999465942305</v>
       </c>
       <c r="P3" s="4">
-        <v>1600524402</v>
+        <v>1600582437</v>
       </c>
       <c r="Q3" s="20">
-        <v>0.98379999399185103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.98299998044967596</v>
+      </c>
+      <c r="R3" s="42"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1037,13 +1183,13 @@
       <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="47">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="47">
         <v>100</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -1062,22 +1208,23 @@
         <v>0</v>
       </c>
       <c r="M4" s="14">
-        <v>2.4782181024551302</v>
+        <v>2.2474534233411099</v>
       </c>
       <c r="N4" s="4">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="O4" s="14">
-        <v>0.98479998111724798</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="P4" s="4">
-        <v>1600524448</v>
+        <v>1600582485</v>
       </c>
       <c r="Q4" s="20">
-        <v>0.98280000686645497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.98180001974105802</v>
+      </c>
+      <c r="R4" s="42"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1240,7 @@
       <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="47" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="4">
@@ -1115,22 +1262,23 @@
         <v>0</v>
       </c>
       <c r="M5" s="14">
-        <v>9.2219397266705805</v>
+        <v>8.1991480628649391</v>
       </c>
       <c r="N5" s="4">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O5" s="14">
-        <v>0.98619997501373202</v>
+        <v>0.98699998855590798</v>
       </c>
       <c r="P5" s="4">
-        <v>1600524599</v>
+        <v>1600582621</v>
       </c>
       <c r="Q5" s="20">
-        <v>0.98570001125335605</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.98559999465942305</v>
+      </c>
+      <c r="R5" s="42"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1146,16 +1294,16 @@
       <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="47" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="4">
         <v>100</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="47" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="14">
@@ -1168,22 +1316,23 @@
         <v>0</v>
       </c>
       <c r="M6" s="14">
-        <v>2.56629272301991</v>
+        <v>2.2561684966087299</v>
       </c>
       <c r="N6" s="4">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O6" s="14">
-        <v>0.98659998178482</v>
+        <v>0.98640000820159901</v>
       </c>
       <c r="P6" s="4">
-        <v>1600525154</v>
+        <v>1600583115</v>
       </c>
       <c r="Q6" s="20">
         <v>0.98339998722076405</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="42"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1205,38 +1354,39 @@
       <c r="G7" s="4">
         <v>100</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="48" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="17">
         <v>1E-3</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="49">
         <v>0</v>
       </c>
       <c r="L7" s="14">
         <v>0</v>
       </c>
       <c r="M7" s="14">
-        <v>3.4457813183466501</v>
+        <v>3.0934106469154301</v>
       </c>
       <c r="N7" s="4">
         <v>100</v>
       </c>
       <c r="O7" s="14">
-        <v>0.83980000019073398</v>
+        <v>0.83999997377395597</v>
       </c>
       <c r="P7" s="4">
-        <v>1600525309</v>
+        <v>1600583252</v>
       </c>
       <c r="Q7" s="20">
         <v>0.84409999847412098</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="42"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,35 +1411,36 @@
       <c r="H8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="K8" s="18">
+      <c r="I8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="49">
+        <v>1E-3</v>
+      </c>
+      <c r="K8" s="49">
         <v>0.01</v>
       </c>
       <c r="L8" s="14">
         <v>0</v>
       </c>
       <c r="M8" s="14">
-        <v>2.6652263363202402</v>
+        <v>2.26497300465901</v>
       </c>
       <c r="N8" s="4">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="O8" s="14">
-        <v>0.93140000104904097</v>
+        <v>0.93199998140335005</v>
       </c>
       <c r="P8" s="4">
-        <v>1600525518</v>
+        <v>1600583439</v>
       </c>
       <c r="Q8" s="20">
-        <v>0.92309999465942305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.92110002040863004</v>
+      </c>
+      <c r="R8" s="42"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1317,32 +1468,33 @@
       <c r="I9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="49">
         <v>0.01</v>
       </c>
       <c r="K9" s="14">
         <v>0.01</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="49">
         <v>0</v>
       </c>
       <c r="M9" s="14">
-        <v>2.5585669318834898</v>
+        <v>2.2403691093126898</v>
       </c>
       <c r="N9" s="4">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="O9" s="14">
-        <v>0.90520000457763605</v>
+        <v>0.90939998626708896</v>
       </c>
       <c r="P9" s="4">
-        <v>1600525679</v>
+        <v>1600583576</v>
       </c>
       <c r="Q9" s="20">
-        <v>0.89639997482299805</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.90280002355575495</v>
+      </c>
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
@@ -1376,26 +1528,27 @@
       <c r="K10" s="15">
         <v>0.01</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="50">
         <v>0.2</v>
       </c>
       <c r="M10" s="15">
-        <v>3.0273846785227398</v>
+        <v>2.8547411799430802</v>
       </c>
       <c r="N10" s="13">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="O10" s="15">
-        <v>0.86500000953674305</v>
+        <v>0.85839998722076405</v>
       </c>
       <c r="P10" s="13">
-        <v>1600525835</v>
+        <v>1600583713</v>
       </c>
       <c r="Q10" s="21">
-        <v>0.85559999942779497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>0.85019999742507901</v>
+      </c>
+      <c r="R10" s="42"/>
+    </row>
+    <row r="11" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
@@ -1408,10 +1561,10 @@
       <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="44">
         <v>3</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="44" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="11">
@@ -1433,22 +1586,23 @@
         <v>0</v>
       </c>
       <c r="M11" s="16">
-        <v>3.3863985061645501</v>
+        <v>3.0646524707476299</v>
       </c>
       <c r="N11" s="11">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O11" s="16">
-        <v>0.98640000820159901</v>
+        <v>0.98619997501373202</v>
       </c>
       <c r="P11" s="11">
-        <v>1600530900</v>
+        <v>1600583886</v>
       </c>
       <c r="Q11" s="22">
-        <v>0.98339998722076405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.98580002784729004</v>
+      </c>
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1461,10 +1615,10 @@
       <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="51">
         <v>4</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="51" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="4">
@@ -1486,22 +1640,23 @@
         <v>0</v>
       </c>
       <c r="M12" s="14">
-        <v>4.0952268123626698</v>
+        <v>3.5803745905558202</v>
       </c>
       <c r="N12" s="4">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="O12" s="14">
-        <v>0.98680001497268599</v>
+        <v>0.98640000820159901</v>
       </c>
       <c r="P12" s="4">
-        <v>1600531106</v>
+        <v>1600584071</v>
       </c>
       <c r="Q12" s="20">
-        <v>0.98409998416900601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.98420000076293901</v>
+      </c>
+      <c r="R12" s="42"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1514,10 +1669,10 @@
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="56">
         <v>5</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="56" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="4">
@@ -1539,22 +1694,23 @@
         <v>0</v>
       </c>
       <c r="M13" s="14">
-        <v>4.4805721084276797</v>
+        <v>4.1427514950434299</v>
       </c>
       <c r="N13" s="4">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="O13" s="14">
-        <v>0.98739999532699496</v>
+        <v>0.98559999465942305</v>
       </c>
       <c r="P13" s="4">
-        <v>1600531353</v>
+        <v>1600584287</v>
       </c>
       <c r="Q13" s="20">
-        <v>0.98309999704360895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.98390001058578402</v>
+      </c>
+      <c r="R13" s="42"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1567,10 +1723,10 @@
       <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="45">
         <v>6</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="45" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="4">
@@ -1592,22 +1748,23 @@
         <v>0</v>
       </c>
       <c r="M14" s="14">
-        <v>5.43030351003011</v>
+        <v>4.7911478122075399</v>
       </c>
       <c r="N14" s="4">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O14" s="14">
-        <v>0.98600000143051103</v>
+        <v>0.98559999465942305</v>
       </c>
       <c r="P14" s="4">
-        <v>1600531624</v>
+        <v>1600584538</v>
       </c>
       <c r="Q14" s="20">
-        <v>0.98250001668929998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.98420000076293901</v>
+      </c>
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1620,10 +1777,10 @@
       <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="45">
         <v>7</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="45" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="4">
@@ -1645,22 +1802,23 @@
         <v>0</v>
       </c>
       <c r="M15" s="14">
-        <v>5.71440730492274</v>
+        <v>5.4916058500607798</v>
       </c>
       <c r="N15" s="4">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O15" s="14">
         <v>0.98540002107620195</v>
       </c>
       <c r="P15" s="4">
-        <v>1600531952</v>
+        <v>1600584828</v>
       </c>
       <c r="Q15" s="20">
-        <v>0.98329997062683105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.98119997978210405</v>
+      </c>
+      <c r="R15" s="42"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1682,7 +1840,7 @@
       <c r="G16" s="4">
         <v>100</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="56" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -1698,22 +1856,23 @@
         <v>0</v>
       </c>
       <c r="M16" s="14">
-        <v>4.5932874997456796</v>
+        <v>4.1829772353172299</v>
       </c>
       <c r="N16" s="4">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="O16" s="14">
-        <v>0.98619997501373202</v>
+        <v>0.98500001430511397</v>
       </c>
       <c r="P16" s="4">
-        <v>1600532298</v>
+        <v>1600585160</v>
       </c>
       <c r="Q16" s="20">
-        <v>0.98369997739791804</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.984300017356872</v>
+      </c>
+      <c r="R16" s="42"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1735,7 +1894,7 @@
       <c r="G17" s="4">
         <v>100</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="45" t="s">
         <v>48</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -1751,22 +1910,23 @@
         <v>0</v>
       </c>
       <c r="M17" s="14">
-        <v>4.46739396651585</v>
+        <v>4.1486028075218204</v>
       </c>
       <c r="N17" s="4">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="O17" s="14">
         <v>0.98559999465942305</v>
       </c>
       <c r="P17" s="4">
-        <v>1600532575</v>
+        <v>1600585412</v>
       </c>
       <c r="Q17" s="20">
-        <v>0.979900002479553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.98259997367858798</v>
+      </c>
+      <c r="R17" s="42"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1797,14 +1957,14 @@
       <c r="J18" s="14">
         <v>1E-3</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="53">
         <v>0.1</v>
       </c>
       <c r="L18" s="14">
         <v>0</v>
       </c>
       <c r="M18" s="14">
-        <v>4.2638758460680597</v>
+        <v>4.4505209247271198</v>
       </c>
       <c r="N18" s="4">
         <v>3</v>
@@ -1813,13 +1973,14 @@
         <v>0.11259999871253901</v>
       </c>
       <c r="P18" s="4">
-        <v>1600534322</v>
+        <v>1600585663</v>
       </c>
       <c r="Q18" s="20">
         <v>0.113499999046325</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="42"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1850,29 +2011,30 @@
       <c r="J19" s="14">
         <v>1E-3</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="53">
         <v>0.01</v>
       </c>
       <c r="L19" s="14">
         <v>0</v>
       </c>
       <c r="M19" s="14">
-        <v>4.4025170365969304</v>
+        <v>4.2424076875050796</v>
       </c>
       <c r="N19" s="4">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O19" s="14">
-        <v>0.92580002546310403</v>
+        <v>0.92299997806548995</v>
       </c>
       <c r="P19" s="4">
-        <v>1600534579</v>
+        <v>1600585932</v>
       </c>
       <c r="Q19" s="20">
-        <v>0.91540002822875899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.91409999132156305</v>
+      </c>
+      <c r="R19" s="42"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1903,29 +2065,30 @@
       <c r="J20" s="14">
         <v>1E-3</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="54">
         <v>1E-3</v>
       </c>
       <c r="L20" s="14">
         <v>0</v>
       </c>
       <c r="M20" s="14">
-        <v>4.3214475433031696</v>
+        <v>4.1816273331642098</v>
       </c>
       <c r="N20" s="4">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="O20" s="14">
-        <v>0.97780001163482599</v>
+        <v>0.97799998521804798</v>
       </c>
       <c r="P20" s="4">
-        <v>1600534845</v>
+        <v>1600586188</v>
       </c>
       <c r="Q20" s="20">
-        <v>0.97420001029968195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.97469997406005804</v>
+      </c>
+      <c r="R20" s="42"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1959,26 +2122,27 @@
       <c r="K21" s="14">
         <v>1E-3</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="53">
         <v>0.2</v>
       </c>
       <c r="M21" s="14">
-        <v>5.31751877069473</v>
+        <v>4.8221052567164104</v>
       </c>
       <c r="N21" s="4">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="O21" s="14">
-        <v>0.96600002050399703</v>
+        <v>0.96499997377395597</v>
       </c>
       <c r="P21" s="4">
-        <v>1600535471</v>
+        <v>1600586441</v>
       </c>
       <c r="Q21" s="20">
-        <v>0.95700001716613703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.95899999141693104</v>
+      </c>
+      <c r="R21" s="42"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -2012,33 +2176,34 @@
       <c r="K22" s="14">
         <v>1E-3</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="53">
         <v>0.5</v>
       </c>
       <c r="M22" s="14">
-        <v>5.4149915814399696</v>
+        <v>4.9083413998285899</v>
       </c>
       <c r="N22" s="4">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="O22" s="14">
-        <v>0.944199979305267</v>
+        <v>0.94359999895095803</v>
       </c>
       <c r="P22" s="4">
-        <v>1600535793</v>
+        <v>1600586733</v>
       </c>
       <c r="Q22" s="20">
         <v>0.93660002946853604</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="42"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="47">
         <v>100</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -2065,33 +2230,34 @@
       <c r="K23" s="14">
         <v>1E-3</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="53">
         <v>0.8</v>
       </c>
       <c r="M23" s="14">
-        <v>6.05031393766403</v>
+        <v>5.1366555293400999</v>
       </c>
       <c r="N23" s="4">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O23" s="14">
-        <v>0.74860000610351496</v>
+        <v>0.80680000782012895</v>
       </c>
       <c r="P23" s="4">
-        <v>1600536121</v>
+        <v>1600587030</v>
       </c>
       <c r="Q23" s="20">
-        <v>0.74720001220703103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.78479999303817705</v>
+      </c>
+      <c r="R23" s="42"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="47">
         <v>200</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -2118,26 +2284,27 @@
       <c r="K24" s="14">
         <v>1E-3</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="54">
         <v>0.2</v>
       </c>
       <c r="M24" s="14">
-        <v>4.1730802257855704</v>
+        <v>3.8283475875854398</v>
       </c>
       <c r="N24" s="4">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="O24" s="14">
-        <v>0.96920001506805398</v>
+        <v>0.96700000762939398</v>
       </c>
       <c r="P24" s="4">
-        <v>1600536941</v>
+        <v>1600587340</v>
       </c>
       <c r="Q24" s="20">
-        <v>0.96499997377395597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.96009999513626099</v>
+      </c>
+      <c r="R24" s="42"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -2171,26 +2338,27 @@
       <c r="K25" s="14">
         <v>1E-3</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="54">
         <v>0.15</v>
       </c>
       <c r="M25" s="14">
-        <v>4.0707533200581798</v>
+        <v>3.5772575616836502</v>
       </c>
       <c r="N25" s="4">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="O25" s="14">
-        <v>0.97000002861022905</v>
+        <v>0.97119998931884699</v>
       </c>
       <c r="P25" s="4">
-        <v>1600538009</v>
+        <v>1600587572</v>
       </c>
       <c r="Q25" s="20">
-        <v>0.96490001678466797</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.96859997510910001</v>
+      </c>
+      <c r="R25" s="42"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2224,26 +2392,27 @@
       <c r="K26" s="14">
         <v>1E-3</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="53">
         <v>0.25</v>
       </c>
       <c r="M26" s="14">
-        <v>4.3041540384292603</v>
+        <v>3.7084038416544498</v>
       </c>
       <c r="N26" s="4">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="O26" s="14">
-        <v>0.96499997377395597</v>
+        <v>0.964200019836425</v>
       </c>
       <c r="P26" s="4">
-        <v>1600539081</v>
+        <v>1600587789</v>
       </c>
       <c r="Q26" s="20">
-        <v>0.96020001173019398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.95810002088546697</v>
+      </c>
+      <c r="R26" s="42"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -2268,7 +2437,7 @@
       <c r="H27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="47" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="14">
@@ -2277,11 +2446,11 @@
       <c r="K27" s="14">
         <v>1E-3</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="53">
         <v>0.3</v>
       </c>
       <c r="M27" s="14">
-        <v>4.4626905123392699</v>
+        <v>3.70748696724573</v>
       </c>
       <c r="N27" s="4">
         <v>96</v>
@@ -2290,13 +2459,14 @@
         <v>0.96380001306533802</v>
       </c>
       <c r="P27" s="4">
-        <v>1600539342</v>
+        <v>1600588014</v>
       </c>
       <c r="Q27" s="20">
-        <v>0.957599997520446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.95670002698898304</v>
+      </c>
+      <c r="R27" s="42"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,7 +2491,7 @@
       <c r="H28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="46" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="14">
@@ -2334,22 +2504,23 @@
         <v>0.2</v>
       </c>
       <c r="M28" s="14">
-        <v>4.9883216540018704</v>
+        <v>4.3143073002497303</v>
       </c>
       <c r="N28" s="4">
         <v>100</v>
       </c>
       <c r="O28" s="14">
-        <v>0.38019999861717202</v>
+        <v>0.37999999523162797</v>
       </c>
       <c r="P28" s="4">
-        <v>1600540086</v>
+        <v>1600588239</v>
       </c>
       <c r="Q28" s="20">
-        <v>0.35620000958442599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.356000006198883</v>
+      </c>
+      <c r="R28" s="42"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,29 +2551,30 @@
       <c r="J29" s="14">
         <v>1E-3</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="49">
         <v>0.01</v>
       </c>
       <c r="L29" s="14">
         <v>0.2</v>
       </c>
       <c r="M29" s="14">
-        <v>4.2325140118598901</v>
+        <v>3.7861213882764102</v>
       </c>
       <c r="N29" s="4">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O29" s="14">
-        <v>0.90359997749328602</v>
+        <v>0.90299999713897705</v>
       </c>
       <c r="P29" s="4">
-        <v>1600540920</v>
+        <v>1600588500</v>
       </c>
       <c r="Q29" s="20">
-        <v>0.89560002088546697</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.89440000057220403</v>
+      </c>
+      <c r="R29" s="42"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -2433,29 +2605,30 @@
       <c r="J30" s="14">
         <v>1E-3</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="49">
         <v>0.1</v>
       </c>
       <c r="L30" s="14">
         <v>0.2</v>
       </c>
       <c r="M30" s="14">
-        <v>4.2179708480834899</v>
+        <v>3.6713788270950301</v>
       </c>
       <c r="N30" s="4">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="O30" s="14">
         <v>0.115599997341632</v>
       </c>
       <c r="P30" s="4">
-        <v>1600541176</v>
+        <v>1600588730</v>
       </c>
       <c r="Q30" s="20">
-        <v>0.106299996376037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.105499997735023</v>
+      </c>
+      <c r="R30" s="42"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,29 +2659,30 @@
       <c r="J31" s="14">
         <v>1E-3</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="49">
         <v>1</v>
       </c>
       <c r="L31" s="14">
         <v>0.2</v>
       </c>
       <c r="M31" s="14">
-        <v>4.1720520496368403</v>
+        <v>3.5419662952422999</v>
       </c>
       <c r="N31" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O31" s="14">
-        <v>0.11659999936819</v>
+        <v>0.115599997341632</v>
       </c>
       <c r="P31" s="4">
-        <v>1600541432</v>
+        <v>1600588952</v>
       </c>
       <c r="Q31" s="20">
-        <v>0.11119999736547399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.110699996352195</v>
+      </c>
+      <c r="R31" s="42"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -2539,82 +2713,84 @@
       <c r="J32" s="14">
         <v>1E-3</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="49">
         <v>10</v>
       </c>
       <c r="L32" s="14">
         <v>0.2</v>
       </c>
       <c r="M32" s="14">
-        <v>4.2603324691454496</v>
+        <v>3.5298968831698101</v>
       </c>
       <c r="N32" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O32" s="14">
         <v>0.115999996662139</v>
       </c>
       <c r="P32" s="4">
-        <v>1600541685</v>
+        <v>1600589167</v>
       </c>
       <c r="Q32" s="20">
-        <v>0.103200003504753</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+        <v>0.114699997007846</v>
+      </c>
+      <c r="R32" s="42"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="58">
         <v>31</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="58">
         <v>200</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="30">
+      <c r="D33" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="58">
         <v>5</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="30">
-        <v>100</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="K33" s="32">
+      <c r="G33" s="58">
+        <v>100</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="K33" s="54">
         <v>1E-4</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="59">
         <v>0.2</v>
       </c>
-      <c r="M33" s="31">
-        <v>3.9276418964067998</v>
-      </c>
-      <c r="N33" s="30">
-        <v>59</v>
-      </c>
-      <c r="O33" s="31">
-        <v>0.98119997978210405</v>
-      </c>
-      <c r="P33" s="30">
-        <v>1600542256</v>
-      </c>
-      <c r="Q33" s="33">
-        <v>0.97729998826980502</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M33" s="59">
+        <v>3.6590759674708</v>
+      </c>
+      <c r="N33" s="58">
+        <v>87</v>
+      </c>
+      <c r="O33" s="59">
+        <v>0.97979998588562001</v>
+      </c>
+      <c r="P33" s="58">
+        <v>1600589382</v>
+      </c>
+      <c r="Q33" s="60">
+        <v>0.97560000419616699</v>
+      </c>
+      <c r="R33" s="61"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -2642,7 +2818,7 @@
       <c r="I34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="49">
         <v>0.01</v>
       </c>
       <c r="K34" s="14">
@@ -2652,22 +2828,23 @@
         <v>0.2</v>
       </c>
       <c r="M34" s="14">
-        <v>4.1106720924377402</v>
+        <v>3.5482006629308001</v>
       </c>
       <c r="N34" s="4">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O34" s="14">
-        <v>0.94539999961853005</v>
+        <v>0.94679999351501398</v>
       </c>
       <c r="P34" s="4">
-        <v>1600544417</v>
+        <v>1600589603</v>
       </c>
       <c r="Q34" s="20">
-        <v>0.94179999828338601</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.93910002708435003</v>
+      </c>
+      <c r="R34" s="42"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -2695,7 +2872,7 @@
       <c r="I35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="49">
         <v>0.1</v>
       </c>
       <c r="K35" s="14">
@@ -2705,22 +2882,23 @@
         <v>0.2</v>
       </c>
       <c r="M35" s="14">
-        <v>4.3450718204180401</v>
+        <v>3.4754175662994302</v>
       </c>
       <c r="N35" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O35" s="14">
         <v>0.11259999871253901</v>
       </c>
       <c r="P35" s="4">
-        <v>1600544666</v>
+        <v>1600589819</v>
       </c>
       <c r="Q35" s="20">
-        <v>0.113099999725818</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.113499999046325</v>
+      </c>
+      <c r="R35" s="42"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -2748,7 +2926,7 @@
       <c r="I36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="49">
         <v>1</v>
       </c>
       <c r="K36" s="14">
@@ -2758,179 +2936,183 @@
         <v>0.2</v>
       </c>
       <c r="M36" s="14">
-        <v>4.3807267467180804</v>
+        <v>3.5159100294113101</v>
       </c>
       <c r="N36" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O36" s="14">
         <v>0.11259999871253901</v>
       </c>
       <c r="P36" s="4">
-        <v>1600544929</v>
+        <v>1600590029</v>
       </c>
       <c r="Q36" s="20">
         <v>0.113499999046325</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="R36" s="42"/>
+    </row>
+    <row r="37" spans="1:18" s="36" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="13">
         <v>35</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="13">
         <v>200</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D37" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="64">
         <v>5</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="4">
-        <v>100</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="18">
+      <c r="G37" s="13">
+        <v>100</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="50">
         <v>1E-4</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="15">
         <v>1E-4</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="15">
         <v>0.2</v>
       </c>
-      <c r="M37" s="14">
-        <v>5.1025887330373099</v>
-      </c>
-      <c r="N37" s="4">
-        <v>87</v>
-      </c>
-      <c r="O37" s="14">
-        <v>0.97799998521804798</v>
-      </c>
-      <c r="P37" s="4">
-        <v>1600545195</v>
-      </c>
-      <c r="Q37" s="20">
-        <v>0.97299998998641901</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="M37" s="15">
+        <v>3.8374825954437202</v>
+      </c>
+      <c r="N37" s="13">
+        <v>97</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0.97719997167587203</v>
+      </c>
+      <c r="P37" s="13">
+        <v>1600590243</v>
+      </c>
+      <c r="Q37" s="21">
+        <v>0.97390002012252797</v>
+      </c>
+      <c r="R37" s="65"/>
+    </row>
+    <row r="38" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="11">
         <v>36</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="11">
         <v>200</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="D38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="62">
         <v>4</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="4">
-        <v>100</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="K38" s="14">
+      <c r="G38" s="11">
+        <v>100</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="K38" s="63">
         <v>1E-4</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="16">
         <v>0.2</v>
       </c>
-      <c r="M38" s="14">
-        <v>3.71396143833796</v>
-      </c>
-      <c r="N38" s="4">
-        <v>87</v>
-      </c>
-      <c r="O38" s="14">
-        <v>0.98119997978210405</v>
-      </c>
-      <c r="P38" s="4">
-        <v>1600546465</v>
-      </c>
-      <c r="Q38" s="20">
-        <v>0.97500002384185702</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="M38" s="16">
+        <v>3.0816453695297201</v>
+      </c>
+      <c r="N38" s="11">
+        <v>98</v>
+      </c>
+      <c r="O38" s="16">
+        <v>0.98140001296997004</v>
+      </c>
+      <c r="P38" s="11">
+        <v>1600590475</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>0.97699999809265103</v>
+      </c>
+      <c r="R38" s="42"/>
+    </row>
+    <row r="39" spans="1:18" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="38">
         <v>37</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="38">
         <v>200</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="D39" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="38">
         <v>4</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="4">
-        <v>100</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="K39" s="14">
+      <c r="G39" s="38">
+        <v>100</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="K39" s="55">
         <v>0.01</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="39">
         <v>0.2</v>
       </c>
-      <c r="M39" s="14">
-        <v>3.6349635481834399</v>
-      </c>
-      <c r="N39" s="4">
-        <v>78</v>
-      </c>
-      <c r="O39" s="14">
-        <v>0.91240000724792403</v>
-      </c>
-      <c r="P39" s="4">
-        <v>1600546968</v>
-      </c>
-      <c r="Q39" s="20">
-        <v>0.89810001850128096</v>
-      </c>
+      <c r="M39" s="39">
+        <v>3.2143753329912799</v>
+      </c>
+      <c r="N39" s="38">
+        <v>90</v>
+      </c>
+      <c r="O39" s="39">
+        <v>0.91100001335143999</v>
+      </c>
+      <c r="P39" s="38">
+        <v>1600590662</v>
+      </c>
+      <c r="Q39" s="40">
+        <v>0.89889997243881203</v>
+      </c>
+      <c r="R39" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2938,7 +3120,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Q3:Q39">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.975</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2948,28 +3130,4439 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5AC41E-61D5-4AD1-9985-2408CF6D2653}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114A5A9F-0127-4101-A489-943A2712BE6C}">
+  <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E40" sqref="E40:Q76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="3"/>
+      <c r="L1" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>200</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0.75236353079477902</v>
+      </c>
+      <c r="N3" s="4">
+        <v>28</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0.98580002784729004</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1600524402</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>0.98379999399185103</v>
+      </c>
+      <c r="R3" s="42">
+        <v>0.98299998044967596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>200</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>2.4782181024551302</v>
+      </c>
+      <c r="N4" s="4">
+        <v>69</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.98479998111724798</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1600524448</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>0.98280000686645497</v>
+      </c>
+      <c r="R4" s="42">
+        <v>0.98180001974105802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>200</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <v>9.2219397266705805</v>
+      </c>
+      <c r="N5" s="4">
+        <v>94</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.98619997501373202</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1600524599</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>0.98570001125335605</v>
+      </c>
+      <c r="R5" s="42">
+        <v>0.98559999465942305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>200</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2.56629272301991</v>
+      </c>
+      <c r="N6" s="4">
+        <v>63</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.98659998178482</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1600525154</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>0.98339998722076405</v>
+      </c>
+      <c r="R6" s="42">
+        <v>0.98339998722076405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>200</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4">
+        <v>100</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>3.4457813183466501</v>
+      </c>
+      <c r="N7" s="4">
+        <v>100</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.83980000019073398</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1600525309</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>0.84409999847412098</v>
+      </c>
+      <c r="R7" s="42">
+        <v>0.84409999847412098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>200</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4">
+        <v>100</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <v>2.6652263363202402</v>
+      </c>
+      <c r="N8" s="4">
+        <v>69</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.93140000104904097</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1600525518</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>0.92309999465942305</v>
+      </c>
+      <c r="R8" s="42">
+        <v>0.92110002040863004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>200</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4">
+        <v>100</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <v>2.5585669318834898</v>
+      </c>
+      <c r="N9" s="4">
+        <v>49</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.90520000457763605</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1600525679</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0.89639997482299805</v>
+      </c>
+      <c r="R9" s="42">
+        <v>0.90280002355575495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13">
+        <v>200</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="13">
+        <v>4</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="13">
+        <v>100</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="15">
+        <v>3.0273846785227398</v>
+      </c>
+      <c r="N10" s="13">
+        <v>20</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.86500000953674305</v>
+      </c>
+      <c r="P10" s="13">
+        <v>1600525835</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>0.85559999942779497</v>
+      </c>
+      <c r="R10" s="42">
+        <v>0.85019999742507901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11">
+        <v>100</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="23">
+        <v>3</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="11">
+        <v>100</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <v>3.3863985061645501</v>
+      </c>
+      <c r="N11" s="11">
+        <v>84</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0.98640000820159901</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1600530900</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0.98339998722076405</v>
+      </c>
+      <c r="R11" s="42">
+        <v>0.98580002784729004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>100</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="24">
+        <v>4</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4">
+        <v>100</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>4.0952268123626698</v>
+      </c>
+      <c r="N12" s="4">
+        <v>93</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0.98680001497268599</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1600531106</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>0.98409998416900601</v>
+      </c>
+      <c r="R12" s="42">
+        <v>0.98420000076293901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="25">
+        <v>5</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4">
+        <v>100</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>4.4805721084276797</v>
+      </c>
+      <c r="N13" s="4">
+        <v>29</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.98739999532699496</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1600531353</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>0.98309999704360895</v>
+      </c>
+      <c r="R13" s="42">
+        <v>0.98390001058578402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>100</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="24">
+        <v>6</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="4">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <v>5.43030351003011</v>
+      </c>
+      <c r="N14" s="4">
+        <v>76</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.98600000143051103</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1600531624</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>0.98250001668929998</v>
+      </c>
+      <c r="R14" s="42">
+        <v>0.98420000076293901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="24">
+        <v>7</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="4">
+        <v>100</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <v>5.71440730492274</v>
+      </c>
+      <c r="N15" s="4">
+        <v>66</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.98540002107620195</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1600531952</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>0.98329997062683105</v>
+      </c>
+      <c r="R15" s="42">
+        <v>0.98119997978210405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <v>100</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="4">
+        <v>100</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14">
+        <v>4.5932874997456796</v>
+      </c>
+      <c r="N16" s="4">
+        <v>96</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.98619997501373202</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1600532298</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>0.98369997739791804</v>
+      </c>
+      <c r="R16" s="42">
+        <v>0.984300017356872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>100</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="4">
+        <v>100</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
+        <v>4.46739396651585</v>
+      </c>
+      <c r="N17" s="4">
+        <v>29</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0.98559999465942305</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1600532575</v>
+      </c>
+      <c r="Q17" s="20">
+        <v>0.979900002479553</v>
+      </c>
+      <c r="R17" s="42">
+        <v>0.98259997367858798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="4">
+        <v>100</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <v>4.2638758460680597</v>
+      </c>
+      <c r="N18" s="4">
+        <v>3</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0.11259999871253901</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1600534322</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>0.113499999046325</v>
+      </c>
+      <c r="R18" s="42">
+        <v>0.113499999046325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
+        <v>100</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="4">
+        <v>100</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <v>4.4025170365969304</v>
+      </c>
+      <c r="N19" s="4">
+        <v>65</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0.92580002546310403</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1600534579</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>0.91540002822875899</v>
+      </c>
+      <c r="R19" s="42">
+        <v>0.91409999132156305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4">
+        <v>100</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="4">
+        <v>100</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K20" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <v>4.3214475433031696</v>
+      </c>
+      <c r="N20" s="4">
+        <v>80</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0.97780001163482599</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1600534845</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>0.97420001029968195</v>
+      </c>
+      <c r="R20" s="42">
+        <v>0.97469997406005804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4">
+        <v>100</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="4">
+        <v>100</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K21" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L21" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="M21" s="14">
+        <v>5.31751877069473</v>
+      </c>
+      <c r="N21" s="4">
+        <v>80</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0.96600002050399703</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1600535471</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>0.95700001716613703</v>
+      </c>
+      <c r="R21" s="42">
+        <v>0.95899999141693104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
+        <v>100</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="4">
+        <v>100</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K22" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L22" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="14">
+        <v>5.4149915814399696</v>
+      </c>
+      <c r="N22" s="4">
+        <v>96</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0.944199979305267</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1600535793</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>0.93660002946853604</v>
+      </c>
+      <c r="R22" s="42">
+        <v>0.93660002946853604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
+        <v>100</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="4">
+        <v>100</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K23" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="M23" s="14">
+        <v>6.05031393766403</v>
+      </c>
+      <c r="N23" s="4">
+        <v>100</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0.74860000610351496</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1600536121</v>
+      </c>
+      <c r="Q23" s="20">
+        <v>0.74720001220703103</v>
+      </c>
+      <c r="R23" s="42">
+        <v>0.78479999303817705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5">
+        <v>200</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="4">
+        <v>100</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L24" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="14">
+        <v>4.1730802257855704</v>
+      </c>
+      <c r="N24" s="4">
+        <v>98</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0.96920001506805398</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1600536941</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>0.96499997377395597</v>
+      </c>
+      <c r="R24" s="42">
+        <v>0.96009999513626099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4">
+        <v>200</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="4">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K25" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="M25" s="14">
+        <v>4.0707533200581798</v>
+      </c>
+      <c r="N25" s="4">
+        <v>24</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0.97000002861022905</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1600538009</v>
+      </c>
+      <c r="Q25" s="20">
+        <v>0.96490001678466797</v>
+      </c>
+      <c r="R25" s="42">
+        <v>0.96859997510910001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4">
+        <v>200</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="4">
+        <v>100</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K26" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L26" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="M26" s="14">
+        <v>4.3041540384292603</v>
+      </c>
+      <c r="N26" s="4">
+        <v>91</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0.96499997377395597</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1600539081</v>
+      </c>
+      <c r="Q26" s="20">
+        <v>0.96020001173019398</v>
+      </c>
+      <c r="R26" s="42">
+        <v>0.95810002088546697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="4">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <v>200</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="4">
+        <v>100</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K27" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L27" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="M27" s="14">
+        <v>4.4626905123392699</v>
+      </c>
+      <c r="N27" s="4">
+        <v>96</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0.96380001306533802</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1600539342</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>0.957599997520446</v>
+      </c>
+      <c r="R27" s="42">
+        <v>0.95670002698898304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
+        <v>200</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="4">
+        <v>100</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K28" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M28" s="14">
+        <v>4.9883216540018704</v>
+      </c>
+      <c r="N28" s="4">
+        <v>100</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0.38019999861717202</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1600540086</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>0.35620000958442599</v>
+      </c>
+      <c r="R28" s="42">
+        <v>0.356000006198883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
+        <v>200</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="4">
+        <v>100</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K29" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M29" s="14">
+        <v>4.2325140118598901</v>
+      </c>
+      <c r="N29" s="4">
+        <v>92</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0.90359997749328602</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1600540920</v>
+      </c>
+      <c r="Q29" s="20">
+        <v>0.89560002088546697</v>
+      </c>
+      <c r="R29" s="42">
+        <v>0.89440000057220403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4">
+        <v>200</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="4">
+        <v>100</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K30" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M30" s="14">
+        <v>4.2179708480834899</v>
+      </c>
+      <c r="N30" s="4">
+        <v>52</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0.115599997341632</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1600541176</v>
+      </c>
+      <c r="Q30" s="20">
+        <v>0.106299996376037</v>
+      </c>
+      <c r="R30" s="42">
+        <v>0.105499997735023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="4">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4">
+        <v>200</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="4">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="4">
+        <v>100</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K31" s="18">
+        <v>1</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M31" s="14">
+        <v>4.1720520496368403</v>
+      </c>
+      <c r="N31" s="4">
+        <v>8</v>
+      </c>
+      <c r="O31" s="14">
+        <v>0.11659999936819</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1600541432</v>
+      </c>
+      <c r="Q31" s="20">
+        <v>0.11119999736547399</v>
+      </c>
+      <c r="R31" s="42">
+        <v>0.110699996352195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="4">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4">
+        <v>200</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="4">
+        <v>100</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K32" s="18">
+        <v>10</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M32" s="14">
+        <v>4.2603324691454496</v>
+      </c>
+      <c r="N32" s="4">
+        <v>4</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0.115999996662139</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1600541685</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>0.103200003504753</v>
+      </c>
+      <c r="R32" s="42">
+        <v>0.114699997007846</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="30">
+        <v>31</v>
+      </c>
+      <c r="C33" s="30">
+        <v>200</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="30">
+        <v>5</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="30">
+        <v>100</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="K33" s="32">
+        <v>1E-4</v>
+      </c>
+      <c r="L33" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="M33" s="31">
+        <v>3.9276418964067998</v>
+      </c>
+      <c r="N33" s="30">
+        <v>59</v>
+      </c>
+      <c r="O33" s="31">
+        <v>0.98119997978210405</v>
+      </c>
+      <c r="P33" s="30">
+        <v>1600542256</v>
+      </c>
+      <c r="Q33" s="33">
+        <v>0.97729998826980502</v>
+      </c>
+      <c r="R33" s="42">
+        <v>0.97560000419616699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="4">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4">
+        <v>200</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="4">
+        <v>5</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="4">
+        <v>100</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="K34" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M34" s="14">
+        <v>4.1106720924377402</v>
+      </c>
+      <c r="N34" s="4">
+        <v>19</v>
+      </c>
+      <c r="O34" s="14">
+        <v>0.94539999961853005</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1600544417</v>
+      </c>
+      <c r="Q34" s="20">
+        <v>0.94179999828338601</v>
+      </c>
+      <c r="R34" s="42">
+        <v>0.93910002708435003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="4">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4">
+        <v>200</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="4">
+        <v>100</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="K35" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M35" s="14">
+        <v>4.3450718204180401</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1</v>
+      </c>
+      <c r="O35" s="14">
+        <v>0.11259999871253901</v>
+      </c>
+      <c r="P35" s="4">
+        <v>1600544666</v>
+      </c>
+      <c r="Q35" s="20">
+        <v>0.113099999725818</v>
+      </c>
+      <c r="R35" s="42">
+        <v>0.113499999046325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="4">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4">
+        <v>200</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="4">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="4">
+        <v>100</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="18">
+        <v>1</v>
+      </c>
+      <c r="K36" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M36" s="14">
+        <v>4.3807267467180804</v>
+      </c>
+      <c r="N36" s="4">
+        <v>7</v>
+      </c>
+      <c r="O36" s="14">
+        <v>0.11259999871253901</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1600544929</v>
+      </c>
+      <c r="Q36" s="20">
+        <v>0.113499999046325</v>
+      </c>
+      <c r="R36" s="42">
+        <v>0.113499999046325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="4">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4">
+        <v>200</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="4">
+        <v>100</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="K37" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M37" s="14">
+        <v>5.1025887330373099</v>
+      </c>
+      <c r="N37" s="4">
+        <v>87</v>
+      </c>
+      <c r="O37" s="14">
+        <v>0.97799998521804798</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1600545195</v>
+      </c>
+      <c r="Q37" s="20">
+        <v>0.97299998998641901</v>
+      </c>
+      <c r="R37" s="42">
+        <v>0.97390002012252797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="4">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
+        <v>200</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="4">
+        <v>4</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="4">
+        <v>100</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K38" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M38" s="14">
+        <v>3.71396143833796</v>
+      </c>
+      <c r="N38" s="4">
+        <v>87</v>
+      </c>
+      <c r="O38" s="14">
+        <v>0.98119997978210405</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1600546465</v>
+      </c>
+      <c r="Q38" s="20">
+        <v>0.97500002384185702</v>
+      </c>
+      <c r="R38" s="42">
+        <v>0.97699999809265103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="38">
+        <v>37</v>
+      </c>
+      <c r="C39" s="38">
+        <v>200</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="38">
+        <v>4</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="38">
+        <v>100</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="K39" s="39">
+        <v>0.01</v>
+      </c>
+      <c r="L39" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="M39" s="39">
+        <v>3.6349635481834399</v>
+      </c>
+      <c r="N39" s="38">
+        <v>78</v>
+      </c>
+      <c r="O39" s="39">
+        <v>0.91240000724792403</v>
+      </c>
+      <c r="P39" s="38">
+        <v>1600546968</v>
+      </c>
+      <c r="Q39" s="40">
+        <v>0.89810001850128096</v>
+      </c>
+      <c r="R39" s="43">
+        <v>0.89889997243881203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1</v>
+      </c>
+      <c r="C40" s="11">
+        <v>200</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="11">
+        <v>3</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="11">
+        <v>30</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="K40" s="16">
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0</v>
+      </c>
+      <c r="M40" s="16">
+        <v>0.77528378566106104</v>
+      </c>
+      <c r="N40" s="11">
+        <v>27</v>
+      </c>
+      <c r="O40" s="16">
+        <v>0.98559999465942305</v>
+      </c>
+      <c r="P40" s="11">
+        <v>1600582437</v>
+      </c>
+      <c r="Q40" s="22">
+        <v>0.98299998044967596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4">
+        <v>200</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="4">
+        <v>4</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="4">
+        <v>100</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K41" s="14">
+        <v>0</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+      <c r="M41" s="14">
+        <v>2.2474534233411099</v>
+      </c>
+      <c r="N41" s="4">
+        <v>99</v>
+      </c>
+      <c r="O41" s="14">
+        <v>0.98400002717971802</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1600582485</v>
+      </c>
+      <c r="Q41" s="20">
+        <v>0.98180001974105802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="4">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4">
+        <v>200</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="4">
+        <v>4</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="4">
+        <v>100</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K42" s="14">
+        <v>0</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+      <c r="M42" s="14">
+        <v>8.1991480628649391</v>
+      </c>
+      <c r="N42" s="4">
+        <v>92</v>
+      </c>
+      <c r="O42" s="14">
+        <v>0.98699998855590798</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1600582621</v>
+      </c>
+      <c r="Q42" s="20">
+        <v>0.98559999465942305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4">
+        <v>200</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="4">
+        <v>4</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="4">
+        <v>100</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K43" s="14">
+        <v>0</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="14">
+        <v>2.2561684966087299</v>
+      </c>
+      <c r="N43" s="4">
+        <v>58</v>
+      </c>
+      <c r="O43" s="14">
+        <v>0.98640000820159901</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1600583115</v>
+      </c>
+      <c r="Q43" s="20">
+        <v>0.98339998722076405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="4">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4">
+        <v>200</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="4">
+        <v>4</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="4">
+        <v>100</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K44" s="14">
+        <v>0</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="14">
+        <v>3.0934106469154301</v>
+      </c>
+      <c r="N44" s="4">
+        <v>100</v>
+      </c>
+      <c r="O44" s="14">
+        <v>0.83999997377395597</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1600583252</v>
+      </c>
+      <c r="Q44" s="20">
+        <v>0.84409999847412098</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="4">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4">
+        <v>200</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="4">
+        <v>4</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="4">
+        <v>100</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K45" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+      <c r="M45" s="14">
+        <v>2.26497300465901</v>
+      </c>
+      <c r="N45" s="4">
+        <v>95</v>
+      </c>
+      <c r="O45" s="14">
+        <v>0.93199998140335005</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1600583439</v>
+      </c>
+      <c r="Q45" s="20">
+        <v>0.92110002040863004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="4">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4">
+        <v>200</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="4">
+        <v>4</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="4">
+        <v>100</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K46" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+      <c r="M46" s="14">
+        <v>2.2403691093126898</v>
+      </c>
+      <c r="N46" s="4">
+        <v>63</v>
+      </c>
+      <c r="O46" s="14">
+        <v>0.90939998626708896</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1600583576</v>
+      </c>
+      <c r="Q46" s="20">
+        <v>0.90280002355575495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="36" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="13">
+        <v>8</v>
+      </c>
+      <c r="C47" s="13">
+        <v>200</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="13">
+        <v>4</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="13">
+        <v>100</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="M47" s="15">
+        <v>2.8547411799430802</v>
+      </c>
+      <c r="N47" s="13">
+        <v>9</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0.85839998722076405</v>
+      </c>
+      <c r="P47" s="13">
+        <v>1600583713</v>
+      </c>
+      <c r="Q47" s="21">
+        <v>0.85019999742507901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="11">
+        <v>9</v>
+      </c>
+      <c r="C48" s="11">
+        <v>100</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="11">
+        <v>3</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="11">
+        <v>100</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="K48" s="16">
+        <v>0</v>
+      </c>
+      <c r="L48" s="16">
+        <v>0</v>
+      </c>
+      <c r="M48" s="16">
+        <v>3.0646524707476299</v>
+      </c>
+      <c r="N48" s="11">
+        <v>77</v>
+      </c>
+      <c r="O48" s="16">
+        <v>0.98619997501373202</v>
+      </c>
+      <c r="P48" s="11">
+        <v>1600583886</v>
+      </c>
+      <c r="Q48" s="22">
+        <v>0.98580002784729004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4">
+        <v>10</v>
+      </c>
+      <c r="C49" s="4">
+        <v>100</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="4">
+        <v>4</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="4">
+        <v>100</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K49" s="14">
+        <v>0</v>
+      </c>
+      <c r="L49" s="14">
+        <v>0</v>
+      </c>
+      <c r="M49" s="14">
+        <v>3.5803745905558202</v>
+      </c>
+      <c r="N49" s="4">
+        <v>74</v>
+      </c>
+      <c r="O49" s="14">
+        <v>0.98640000820159901</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1600584071</v>
+      </c>
+      <c r="Q49" s="20">
+        <v>0.98420000076293901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="4">
+        <v>11</v>
+      </c>
+      <c r="C50" s="4">
+        <v>100</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="4">
+        <v>5</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="4">
+        <v>100</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K50" s="14">
+        <v>0</v>
+      </c>
+      <c r="L50" s="14">
+        <v>0</v>
+      </c>
+      <c r="M50" s="14">
+        <v>4.1427514950434299</v>
+      </c>
+      <c r="N50" s="4">
+        <v>46</v>
+      </c>
+      <c r="O50" s="14">
+        <v>0.98559999465942305</v>
+      </c>
+      <c r="P50" s="4">
+        <v>1600584287</v>
+      </c>
+      <c r="Q50" s="20">
+        <v>0.98390001058578402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="4">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4">
+        <v>100</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="4">
+        <v>6</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="4">
+        <v>100</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K51" s="14">
+        <v>0</v>
+      </c>
+      <c r="L51" s="14">
+        <v>0</v>
+      </c>
+      <c r="M51" s="14">
+        <v>4.7911478122075399</v>
+      </c>
+      <c r="N51" s="4">
+        <v>100</v>
+      </c>
+      <c r="O51" s="14">
+        <v>0.98559999465942305</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1600584538</v>
+      </c>
+      <c r="Q51" s="20">
+        <v>0.98420000076293901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="4">
+        <v>13</v>
+      </c>
+      <c r="C52" s="4">
+        <v>100</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="4">
+        <v>7</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="4">
+        <v>100</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K52" s="14">
+        <v>0</v>
+      </c>
+      <c r="L52" s="14">
+        <v>0</v>
+      </c>
+      <c r="M52" s="14">
+        <v>5.4916058500607798</v>
+      </c>
+      <c r="N52" s="4">
+        <v>62</v>
+      </c>
+      <c r="O52" s="14">
+        <v>0.98540002107620195</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1600584828</v>
+      </c>
+      <c r="Q52" s="20">
+        <v>0.98119997978210405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="4">
+        <v>14</v>
+      </c>
+      <c r="C53" s="4">
+        <v>100</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="4">
+        <v>100</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K53" s="14">
+        <v>0</v>
+      </c>
+      <c r="L53" s="14">
+        <v>0</v>
+      </c>
+      <c r="M53" s="14">
+        <v>4.1829772353172299</v>
+      </c>
+      <c r="N53" s="4">
+        <v>60</v>
+      </c>
+      <c r="O53" s="14">
+        <v>0.98500001430511397</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1600585160</v>
+      </c>
+      <c r="Q53" s="20">
+        <v>0.984300017356872</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="4">
+        <v>15</v>
+      </c>
+      <c r="C54" s="4">
+        <v>100</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="4">
+        <v>5</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="4">
+        <v>100</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K54" s="14">
+        <v>0</v>
+      </c>
+      <c r="L54" s="14">
+        <v>0</v>
+      </c>
+      <c r="M54" s="14">
+        <v>4.1486028075218204</v>
+      </c>
+      <c r="N54" s="4">
+        <v>65</v>
+      </c>
+      <c r="O54" s="14">
+        <v>0.98559999465942305</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1600585412</v>
+      </c>
+      <c r="Q54" s="20">
+        <v>0.98259997367858798</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="4">
+        <v>16</v>
+      </c>
+      <c r="C55" s="4">
+        <v>100</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="4">
+        <v>5</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="4">
+        <v>100</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K55" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="L55" s="14">
+        <v>0</v>
+      </c>
+      <c r="M55" s="14">
+        <v>4.4505209247271198</v>
+      </c>
+      <c r="N55" s="4">
+        <v>3</v>
+      </c>
+      <c r="O55" s="14">
+        <v>0.11259999871253901</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1600585663</v>
+      </c>
+      <c r="Q55" s="20">
+        <v>0.113499999046325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="4">
+        <v>17</v>
+      </c>
+      <c r="C56" s="4">
+        <v>100</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="4">
+        <v>5</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="4">
+        <v>100</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K56" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="L56" s="14">
+        <v>0</v>
+      </c>
+      <c r="M56" s="14">
+        <v>4.2424076875050796</v>
+      </c>
+      <c r="N56" s="4">
+        <v>58</v>
+      </c>
+      <c r="O56" s="14">
+        <v>0.92299997806548995</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1600585932</v>
+      </c>
+      <c r="Q56" s="20">
+        <v>0.91409999132156305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="4">
+        <v>18</v>
+      </c>
+      <c r="C57" s="4">
+        <v>100</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="4">
+        <v>5</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="4">
+        <v>100</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K57" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L57" s="14">
+        <v>0</v>
+      </c>
+      <c r="M57" s="14">
+        <v>4.1816273331642098</v>
+      </c>
+      <c r="N57" s="4">
+        <v>88</v>
+      </c>
+      <c r="O57" s="14">
+        <v>0.97799998521804798</v>
+      </c>
+      <c r="P57" s="4">
+        <v>1600586188</v>
+      </c>
+      <c r="Q57" s="20">
+        <v>0.97469997406005804</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="4">
+        <v>19</v>
+      </c>
+      <c r="C58" s="4">
+        <v>100</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="4">
+        <v>5</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="4">
+        <v>100</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K58" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L58" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M58" s="14">
+        <v>4.8221052567164104</v>
+      </c>
+      <c r="N58" s="4">
+        <v>62</v>
+      </c>
+      <c r="O58" s="14">
+        <v>0.96499997377395597</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1600586441</v>
+      </c>
+      <c r="Q58" s="20">
+        <v>0.95899999141693104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="4">
+        <v>20</v>
+      </c>
+      <c r="C59" s="4">
+        <v>100</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="4">
+        <v>100</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K59" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L59" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M59" s="14">
+        <v>4.9083413998285899</v>
+      </c>
+      <c r="N59" s="4">
+        <v>78</v>
+      </c>
+      <c r="O59" s="14">
+        <v>0.94359999895095803</v>
+      </c>
+      <c r="P59" s="4">
+        <v>1600586733</v>
+      </c>
+      <c r="Q59" s="20">
+        <v>0.93660002946853604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="4">
+        <v>21</v>
+      </c>
+      <c r="C60" s="4">
+        <v>100</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="4">
+        <v>5</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="4">
+        <v>100</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K60" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L60" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="M60" s="14">
+        <v>5.1366555293400999</v>
+      </c>
+      <c r="N60" s="4">
+        <v>92</v>
+      </c>
+      <c r="O60" s="14">
+        <v>0.80680000782012895</v>
+      </c>
+      <c r="P60" s="4">
+        <v>1600587030</v>
+      </c>
+      <c r="Q60" s="20">
+        <v>0.78479999303817705</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="4">
+        <v>22</v>
+      </c>
+      <c r="C61" s="4">
+        <v>200</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="4">
+        <v>5</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="4">
+        <v>100</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K61" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L61" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M61" s="14">
+        <v>3.8283475875854398</v>
+      </c>
+      <c r="N61" s="4">
+        <v>43</v>
+      </c>
+      <c r="O61" s="14">
+        <v>0.96700000762939398</v>
+      </c>
+      <c r="P61" s="4">
+        <v>1600587340</v>
+      </c>
+      <c r="Q61" s="20">
+        <v>0.96009999513626099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="4">
+        <v>23</v>
+      </c>
+      <c r="C62" s="4">
+        <v>200</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="4">
+        <v>5</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="4">
+        <v>100</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K62" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L62" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="M62" s="14">
+        <v>3.5772575616836502</v>
+      </c>
+      <c r="N62" s="4">
+        <v>94</v>
+      </c>
+      <c r="O62" s="14">
+        <v>0.97119998931884699</v>
+      </c>
+      <c r="P62" s="4">
+        <v>1600587572</v>
+      </c>
+      <c r="Q62" s="20">
+        <v>0.96859997510910001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="4">
+        <v>24</v>
+      </c>
+      <c r="C63" s="4">
+        <v>200</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="4">
+        <v>5</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="4">
+        <v>100</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K63" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L63" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="M63" s="14">
+        <v>3.7084038416544498</v>
+      </c>
+      <c r="N63" s="4">
+        <v>57</v>
+      </c>
+      <c r="O63" s="14">
+        <v>0.964200019836425</v>
+      </c>
+      <c r="P63" s="4">
+        <v>1600587789</v>
+      </c>
+      <c r="Q63" s="20">
+        <v>0.95810002088546697</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="4">
+        <v>25</v>
+      </c>
+      <c r="C64" s="4">
+        <v>200</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="4">
+        <v>5</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="4">
+        <v>100</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K64" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L64" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="M64" s="14">
+        <v>3.70748696724573</v>
+      </c>
+      <c r="N64" s="4">
+        <v>96</v>
+      </c>
+      <c r="O64" s="14">
+        <v>0.96380001306533802</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1600588014</v>
+      </c>
+      <c r="Q64" s="20">
+        <v>0.95670002698898304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="4">
+        <v>26</v>
+      </c>
+      <c r="C65" s="4">
+        <v>200</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="4">
+        <v>5</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="4">
+        <v>100</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K65" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="L65" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M65" s="14">
+        <v>4.3143073002497303</v>
+      </c>
+      <c r="N65" s="4">
+        <v>100</v>
+      </c>
+      <c r="O65" s="14">
+        <v>0.37999999523162797</v>
+      </c>
+      <c r="P65" s="4">
+        <v>1600588239</v>
+      </c>
+      <c r="Q65" s="20">
+        <v>0.356000006198883</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="4">
+        <v>27</v>
+      </c>
+      <c r="C66" s="4">
+        <v>200</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="4">
+        <v>5</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="4">
+        <v>100</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K66" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="L66" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M66" s="14">
+        <v>3.7861213882764102</v>
+      </c>
+      <c r="N66" s="4">
+        <v>88</v>
+      </c>
+      <c r="O66" s="14">
+        <v>0.90299999713897705</v>
+      </c>
+      <c r="P66" s="4">
+        <v>1600588500</v>
+      </c>
+      <c r="Q66" s="20">
+        <v>0.89440000057220403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="4">
+        <v>28</v>
+      </c>
+      <c r="C67" s="4">
+        <v>200</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="4">
+        <v>5</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="4">
+        <v>100</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K67" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="L67" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M67" s="14">
+        <v>3.6713788270950301</v>
+      </c>
+      <c r="N67" s="4">
+        <v>67</v>
+      </c>
+      <c r="O67" s="14">
+        <v>0.115599997341632</v>
+      </c>
+      <c r="P67" s="4">
+        <v>1600588730</v>
+      </c>
+      <c r="Q67" s="20">
+        <v>0.105499997735023</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="4">
+        <v>29</v>
+      </c>
+      <c r="C68" s="4">
+        <v>200</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="4">
+        <v>5</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="4">
+        <v>100</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K68" s="14">
+        <v>1</v>
+      </c>
+      <c r="L68" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M68" s="14">
+        <v>3.5419662952422999</v>
+      </c>
+      <c r="N68" s="4">
+        <v>5</v>
+      </c>
+      <c r="O68" s="14">
+        <v>0.115599997341632</v>
+      </c>
+      <c r="P68" s="4">
+        <v>1600588952</v>
+      </c>
+      <c r="Q68" s="20">
+        <v>0.110699996352195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="4">
+        <v>30</v>
+      </c>
+      <c r="C69" s="4">
+        <v>200</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="4">
+        <v>5</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="4">
+        <v>100</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K69" s="14">
+        <v>10</v>
+      </c>
+      <c r="L69" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M69" s="14">
+        <v>3.5298968831698101</v>
+      </c>
+      <c r="N69" s="4">
+        <v>8</v>
+      </c>
+      <c r="O69" s="14">
+        <v>0.115999996662139</v>
+      </c>
+      <c r="P69" s="4">
+        <v>1600589167</v>
+      </c>
+      <c r="Q69" s="20">
+        <v>0.114699997007846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="4">
+        <v>31</v>
+      </c>
+      <c r="C70" s="4">
+        <v>200</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="4">
+        <v>5</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="4">
+        <v>100</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K70" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="L70" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M70" s="14">
+        <v>3.6590759674708</v>
+      </c>
+      <c r="N70" s="4">
+        <v>87</v>
+      </c>
+      <c r="O70" s="14">
+        <v>0.97979998588562001</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1600589382</v>
+      </c>
+      <c r="Q70" s="20">
+        <v>0.97560000419616699</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="4">
+        <v>32</v>
+      </c>
+      <c r="C71" s="4">
+        <v>200</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="4">
+        <v>5</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="4">
+        <v>100</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K71" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="L71" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M71" s="14">
+        <v>3.5482006629308001</v>
+      </c>
+      <c r="N71" s="4">
+        <v>45</v>
+      </c>
+      <c r="O71" s="14">
+        <v>0.94679999351501398</v>
+      </c>
+      <c r="P71" s="4">
+        <v>1600589603</v>
+      </c>
+      <c r="Q71" s="20">
+        <v>0.93910002708435003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="4">
+        <v>33</v>
+      </c>
+      <c r="C72" s="4">
+        <v>200</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="4">
+        <v>5</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="4">
+        <v>100</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="K72" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="L72" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M72" s="14">
+        <v>3.4754175662994302</v>
+      </c>
+      <c r="N72" s="4">
+        <v>4</v>
+      </c>
+      <c r="O72" s="14">
+        <v>0.11259999871253901</v>
+      </c>
+      <c r="P72" s="4">
+        <v>1600589819</v>
+      </c>
+      <c r="Q72" s="20">
+        <v>0.113499999046325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="4">
+        <v>34</v>
+      </c>
+      <c r="C73" s="4">
+        <v>200</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="4">
+        <v>5</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="4">
+        <v>100</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="14">
+        <v>1</v>
+      </c>
+      <c r="K73" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="L73" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M73" s="14">
+        <v>3.5159100294113101</v>
+      </c>
+      <c r="N73" s="4">
+        <v>14</v>
+      </c>
+      <c r="O73" s="14">
+        <v>0.11259999871253901</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1600590029</v>
+      </c>
+      <c r="Q73" s="20">
+        <v>0.113499999046325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="4">
+        <v>35</v>
+      </c>
+      <c r="C74" s="4">
+        <v>200</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="4">
+        <v>5</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="4">
+        <v>100</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="K74" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="L74" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M74" s="14">
+        <v>3.8374825954437202</v>
+      </c>
+      <c r="N74" s="4">
+        <v>97</v>
+      </c>
+      <c r="O74" s="14">
+        <v>0.97719997167587203</v>
+      </c>
+      <c r="P74" s="4">
+        <v>1600590243</v>
+      </c>
+      <c r="Q74" s="20">
+        <v>0.97390002012252797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="4">
+        <v>36</v>
+      </c>
+      <c r="C75" s="4">
+        <v>200</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="4">
+        <v>4</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" s="4">
+        <v>100</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K75" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="L75" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M75" s="14">
+        <v>3.0816453695297201</v>
+      </c>
+      <c r="N75" s="4">
+        <v>98</v>
+      </c>
+      <c r="O75" s="14">
+        <v>0.98140001296997004</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1600590475</v>
+      </c>
+      <c r="Q75" s="20">
+        <v>0.97699999809265103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="4">
+        <v>37</v>
+      </c>
+      <c r="C76" s="4">
+        <v>200</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="4">
+        <v>4</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" s="4">
+        <v>100</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K76" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="L76" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M76" s="14">
+        <v>3.2143753329912799</v>
+      </c>
+      <c r="N76" s="4">
+        <v>90</v>
+      </c>
+      <c r="O76" s="14">
+        <v>0.91100001335143999</v>
+      </c>
+      <c r="P76" s="4">
+        <v>1600590662</v>
+      </c>
+      <c r="Q76" s="20">
+        <v>0.89889997243881203</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>1600582437</v>
+      </c>
+      <c r="I85">
+        <v>0.98299998044967596</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <v>1600582485</v>
+      </c>
+      <c r="I86">
+        <v>0.98180001974105802</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>1600582621</v>
+      </c>
+      <c r="I87">
+        <v>0.98559999465942305</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <v>1600583115</v>
+      </c>
+      <c r="I88">
+        <v>0.98339998722076405</v>
+      </c>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>1600583252</v>
+      </c>
+      <c r="I89">
+        <v>0.84409999847412098</v>
+      </c>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <v>1600583439</v>
+      </c>
+      <c r="I90">
+        <v>0.92110002040863004</v>
+      </c>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <v>1600583576</v>
+      </c>
+      <c r="I91">
+        <v>0.90280002355575495</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <v>1600583713</v>
+      </c>
+      <c r="I92">
+        <v>0.85019999742507901</v>
+      </c>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <v>1600583886</v>
+      </c>
+      <c r="I93">
+        <v>0.98580002784729004</v>
+      </c>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <v>1600584071</v>
+      </c>
+      <c r="I94">
+        <v>0.98420000076293901</v>
+      </c>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <v>1600584287</v>
+      </c>
+      <c r="I95">
+        <v>0.98390001058578402</v>
+      </c>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <v>1600584538</v>
+      </c>
+      <c r="I96">
+        <v>0.98420000076293901</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <v>1600584828</v>
+      </c>
+      <c r="I97">
+        <v>0.98119997978210405</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <v>1600585160</v>
+      </c>
+      <c r="I98">
+        <v>0.984300017356872</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <v>1600585412</v>
+      </c>
+      <c r="I99">
+        <v>0.98259997367858798</v>
+      </c>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <v>1600585663</v>
+      </c>
+      <c r="I100">
+        <v>0.113499999046325</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <v>1600585932</v>
+      </c>
+      <c r="I101">
+        <v>0.91409999132156305</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <v>1600586188</v>
+      </c>
+      <c r="I102">
+        <v>0.97469997406005804</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <v>1600586441</v>
+      </c>
+      <c r="I103">
+        <v>0.95899999141693104</v>
+      </c>
+    </row>
+    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>1600586733</v>
+      </c>
+      <c r="I104">
+        <v>0.93660002946853604</v>
+      </c>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <v>1600587030</v>
+      </c>
+      <c r="I105">
+        <v>0.78479999303817705</v>
+      </c>
+    </row>
+    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <v>1600587340</v>
+      </c>
+      <c r="I106">
+        <v>0.96009999513626099</v>
+      </c>
+    </row>
+    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <v>1600587572</v>
+      </c>
+      <c r="I107">
+        <v>0.96859997510910001</v>
+      </c>
+    </row>
+    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <v>1600587789</v>
+      </c>
+      <c r="I108">
+        <v>0.95810002088546697</v>
+      </c>
+    </row>
+    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <v>1600588014</v>
+      </c>
+      <c r="I109">
+        <v>0.95670002698898304</v>
+      </c>
+    </row>
+    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H110">
+        <v>1600588239</v>
+      </c>
+      <c r="I110">
+        <v>0.356000006198883</v>
+      </c>
+    </row>
+    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H111">
+        <v>1600588500</v>
+      </c>
+      <c r="I111">
+        <v>0.89440000057220403</v>
+      </c>
+    </row>
+    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <v>1600588730</v>
+      </c>
+      <c r="I112">
+        <v>0.105499997735023</v>
+      </c>
+    </row>
+    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <v>1600588952</v>
+      </c>
+      <c r="I113">
+        <v>0.110699996352195</v>
+      </c>
+    </row>
+    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <v>1600589167</v>
+      </c>
+      <c r="I114">
+        <v>0.114699997007846</v>
+      </c>
+    </row>
+    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <v>1600589382</v>
+      </c>
+      <c r="I115">
+        <v>0.97560000419616699</v>
+      </c>
+    </row>
+    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <v>1600589603</v>
+      </c>
+      <c r="I116">
+        <v>0.93910002708435003</v>
+      </c>
+    </row>
+    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <v>1600589819</v>
+      </c>
+      <c r="I117">
+        <v>0.113499999046325</v>
+      </c>
+    </row>
+    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <v>1600590029</v>
+      </c>
+      <c r="I118">
+        <v>0.113499999046325</v>
+      </c>
+    </row>
+    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <v>1600590243</v>
+      </c>
+      <c r="I119">
+        <v>0.97390002012252797</v>
+      </c>
+    </row>
+    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <v>1600590475</v>
+      </c>
+      <c r="I120">
+        <v>0.97699999809265103</v>
+      </c>
+    </row>
+    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <v>1600590662</v>
+      </c>
+      <c r="I121">
+        <v>0.89889997243881203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="Q3:Q76">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.975</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CFCA3B-4F71-42AC-AE6E-BCE7C1C115F4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
